--- a/ZooBC - Feature List.xlsx
+++ b/ZooBC - Feature List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE5B04BB-2BA5-446B-8FA4-B39A9B755690}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD7A27E6-3734-4F70-BBC8-5B299992BD63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="7620" xr2:uid="{94E88CD9-E77F-4B27-8852-E155DDAF8C41}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -430,7 +430,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -444,21 +444,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,7 +459,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jon" refreshedDate="43433.71814409722" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="44" xr:uid="{67E9EF87-D316-47D4-852F-19F1D9EDB77F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jon" refreshedDate="43433.762999652776" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="44" xr:uid="{67E9EF87-D316-47D4-852F-19F1D9EDB77F}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:E51" sheet="Feature List"/>
   </cacheSource>
@@ -724,14 +709,14 @@
     <s v="Product Reviews"/>
     <x v="24"/>
     <n v="1"/>
-    <n v="0"/>
+    <n v="0.5"/>
     <x v="4"/>
   </r>
   <r>
     <s v="Product Reviews"/>
     <x v="25"/>
     <n v="2"/>
-    <n v="0.5"/>
+    <n v="0"/>
     <x v="4"/>
   </r>
   <r>
@@ -864,7 +849,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B510410C-E834-4737-903F-DCD5F67C74F3}" name="PivotTable3" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" preserveFormatting="0" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Pivot Table Report">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B510410C-E834-4737-903F-DCD5F67C74F3}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" preserveFormatting="0" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Pivot Table Report">
   <location ref="G5:H32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1331,7 +1316,7 @@
   <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1450,7 @@
         <v>37</v>
       </c>
       <c r="H8" s="32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I8"/>
     </row>
@@ -1487,7 +1472,7 @@
         <v>38</v>
       </c>
       <c r="H9" s="32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9"/>
     </row>
@@ -1957,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>36</v>
@@ -1980,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>36</v>
